--- a/Mathematical Model/Scarcity Model/parameters_w_50/beta/nonEmpty_diff_a_alpha2_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/beta/nonEmpty_diff_a_alpha2_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5600000000000001</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C3">
-        <v>0.5021459227467812</v>
+        <v>0.5169491525423728</v>
       </c>
       <c r="D3">
-        <v>0.4921875</v>
+        <v>0.5062240663900415</v>
       </c>
       <c r="E3">
-        <v>0.5084388185654009</v>
+        <v>0.5125523012552301</v>
       </c>
       <c r="F3">
-        <v>0.4875</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="G3">
-        <v>0.5020576131687243</v>
+        <v>0.4937759336099585</v>
       </c>
       <c r="H3">
-        <v>0.496</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5641025641025641</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="C4">
-        <v>0.4936974789915967</v>
+        <v>0.5092402464065708</v>
       </c>
       <c r="D4">
-        <v>0.4779874213836478</v>
+        <v>0.4662162162162162</v>
       </c>
       <c r="E4">
-        <v>0.5102639296187683</v>
+        <v>0.5014204545454546</v>
       </c>
       <c r="F4">
-        <v>0.472972972972973</v>
+        <v>0.4402985074626866</v>
       </c>
       <c r="G4">
-        <v>0.5035063113604488</v>
+        <v>0.4958448753462604</v>
       </c>
       <c r="H4">
-        <v>0.508</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5714285714285714</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="C5">
-        <v>0.4990253411306043</v>
+        <v>0.5134615384615384</v>
       </c>
       <c r="D5">
-        <v>0.4864864864864865</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="E5">
-        <v>0.5128865979381443</v>
+        <v>0.4987146529562982</v>
       </c>
       <c r="F5">
-        <v>0.5148514851485149</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="G5">
-        <v>0.5043695380774033</v>
+        <v>0.5049627791563276</v>
       </c>
       <c r="H5">
-        <v>0.498</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5730337078651685</v>
+        <v>0.47</v>
       </c>
       <c r="C6">
-        <v>0.5018115942028986</v>
+        <v>0.518850987432675</v>
       </c>
       <c r="D6">
-        <v>0.4042553191489361</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E6">
-        <v>0.5087281795511222</v>
+        <v>0.499383477188656</v>
       </c>
       <c r="F6">
-        <v>0.5113636363636364</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="G6">
-        <v>0.4939467312348668</v>
+        <v>0.501207729468599</v>
       </c>
       <c r="H6">
-        <v>0.506</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5816326530612245</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5306799336650083</v>
       </c>
       <c r="D7">
-        <v>0.4752475247524752</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="E7">
-        <v>0.5129789864029666</v>
+        <v>0.4920828258221681</v>
       </c>
       <c r="F7">
-        <v>0.5145631067961165</v>
+        <v>0.4625</v>
       </c>
       <c r="G7">
-        <v>0.4933008526187576</v>
+        <v>0.5109223300970874</v>
       </c>
       <c r="H7">
-        <v>0.498</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5288461538461539</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0.4961360123647605</v>
+        <v>0.5246153846153846</v>
       </c>
       <c r="D8">
-        <v>0.4766355140186916</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E8">
-        <v>0.5099009900990099</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="F8">
-        <v>0.5102040816326531</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="G8">
-        <v>0.4950617283950617</v>
+        <v>0.5102781136638452</v>
       </c>
       <c r="H8">
-        <v>0.498</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4910714285714285</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C9">
-        <v>0.5115942028985507</v>
+        <v>0.5342857142857143</v>
       </c>
       <c r="D9">
-        <v>0.485981308411215</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="E9">
-        <v>0.5087939698492462</v>
+        <v>0.491358024691358</v>
       </c>
       <c r="F9">
-        <v>0.45</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="G9">
-        <v>0.4975186104218362</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="H9">
-        <v>0.496</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5360824742268041</v>
+        <v>0.4690265486725664</v>
       </c>
       <c r="C10">
-        <v>0.5095890410958904</v>
+        <v>0.5322793148880105</v>
       </c>
       <c r="D10">
-        <v>0.4423076923076923</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10">
-        <v>0.5107458912768648</v>
+        <v>0.4846248462484625</v>
       </c>
       <c r="F10">
-        <v>0.49</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="G10">
-        <v>0.4912718204488778</v>
+        <v>0.5151148730350665</v>
       </c>
       <c r="H10">
-        <v>0.508</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5157894736842106</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="C11">
-        <v>0.5075</v>
+        <v>0.5361596009975063</v>
       </c>
       <c r="D11">
-        <v>0.5221238938053098</v>
+        <v>0.3908045977011494</v>
       </c>
       <c r="E11">
-        <v>0.5155666251556662</v>
+        <v>0.4939320388349515</v>
       </c>
       <c r="F11">
-        <v>0.5050505050505051</v>
+        <v>0.5632183908045977</v>
       </c>
       <c r="G11">
-        <v>0.4932014833127318</v>
+        <v>0.5162846803377563</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5102040816326531</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="C12">
-        <v>0.5134818288393904</v>
+        <v>0.5244755244755245</v>
       </c>
       <c r="D12">
-        <v>0.5673076923076923</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="E12">
-        <v>0.5081761006289308</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>0.4545454545454545</v>
+        <v>0.4204545454545455</v>
       </c>
       <c r="G12">
-        <v>0.4926108374384237</v>
+        <v>0.5183374083129584</v>
       </c>
       <c r="H12">
-        <v>0.496</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5267857142857143</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C13">
-        <v>0.5170893054024256</v>
+        <v>0.5206521739130435</v>
       </c>
       <c r="D13">
-        <v>0.4787234042553192</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="E13">
-        <v>0.4975124378109453</v>
+        <v>0.4975550122249389</v>
       </c>
       <c r="F13">
-        <v>0.4945054945054945</v>
+        <v>0.3936170212765958</v>
       </c>
       <c r="G13">
-        <v>0.4938423645320197</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H13">
-        <v>0.492</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5698924731182796</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="C14">
-        <v>0.5162986330178759</v>
+        <v>0.5237113402061856</v>
       </c>
       <c r="D14">
-        <v>0.4210526315789473</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="E14">
-        <v>0.5121359223300971</v>
+        <v>0.499383477188656</v>
       </c>
       <c r="F14">
-        <v>0.4625</v>
+        <v>0.3908045977011494</v>
       </c>
       <c r="G14">
-        <v>0.4975903614457831</v>
+        <v>0.519753086419753</v>
       </c>
       <c r="H14">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="C15">
-        <v>0.5118577075098815</v>
+        <v>0.5138067061143984</v>
       </c>
       <c r="D15">
-        <v>0.375</v>
+        <v>0.53</v>
       </c>
       <c r="E15">
-        <v>0.5154130702836005</v>
+        <v>0.5050632911392405</v>
       </c>
       <c r="F15">
-        <v>0.3875</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="G15">
-        <v>0.5054282267792521</v>
+        <v>0.5092936802973977</v>
       </c>
       <c r="H15">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.495049504950495</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C16">
-        <v>0.5161290322580645</v>
+        <v>0.5094161958568738</v>
       </c>
       <c r="D16">
-        <v>0.4536082474226804</v>
+        <v>0.5585585585585585</v>
       </c>
       <c r="E16">
-        <v>0.5129469790382244</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="F16">
-        <v>0.4672897196261682</v>
+        <v>0.4403669724770642</v>
       </c>
       <c r="G16">
-        <v>0.5098039215686274</v>
+        <v>0.506815365551425</v>
       </c>
       <c r="H16">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.54</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="C17">
-        <v>0.5144927536231884</v>
+        <v>0.5177935943060499</v>
       </c>
       <c r="D17">
-        <v>0.4693877551020408</v>
+        <v>0.5568181818181818</v>
       </c>
       <c r="E17">
-        <v>0.5136476426799007</v>
+        <v>0.5105853051058531</v>
       </c>
       <c r="F17">
-        <v>0.5132743362831859</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="G17">
-        <v>0.5087719298245614</v>
+        <v>0.5062034739454094</v>
       </c>
       <c r="H17">
-        <v>0.446</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5631067961165048</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C18">
-        <v>0.5116079105760963</v>
+        <v>0.5194915254237288</v>
       </c>
       <c r="D18">
-        <v>0.4752475247524752</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="E18">
-        <v>0.5104039167686658</v>
+        <v>0.5211097708082026</v>
       </c>
       <c r="F18">
-        <v>0.4952380952380953</v>
+        <v>0.4</v>
       </c>
       <c r="G18">
-        <v>0.5024875621890548</v>
+        <v>0.4987893462469734</v>
       </c>
       <c r="H18">
-        <v>0.45</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5096153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C19">
-        <v>0.5118949958982772</v>
+        <v>0.5215272136474411</v>
       </c>
       <c r="D19">
-        <v>0.4945054945054945</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="E19">
-        <v>0.508495145631068</v>
+        <v>0.5340501792114696</v>
       </c>
       <c r="F19">
-        <v>0.5217391304347826</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="G19">
-        <v>0.4963414634146341</v>
+        <v>0.4903614457831325</v>
       </c>
       <c r="H19">
-        <v>0.454</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6161616161616161</v>
+        <v>0.5242718446601942</v>
       </c>
       <c r="C20">
-        <v>0.5153664302600472</v>
+        <v>0.5233281493001555</v>
       </c>
       <c r="D20">
-        <v>0.4470588235294118</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E20">
-        <v>0.5145631067961165</v>
+        <v>0.5306859205776173</v>
       </c>
       <c r="F20">
-        <v>0.5454545454545454</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="G20">
-        <v>0.5012106537530266</v>
+        <v>0.4928741092636579</v>
       </c>
       <c r="H20">
-        <v>0.442</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5339805825242718</v>
+        <v>0.49</v>
       </c>
       <c r="C21">
-        <v>0.5086661642803316</v>
+        <v>0.5136733185513673</v>
       </c>
       <c r="D21">
-        <v>0.4591836734693878</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="E21">
-        <v>0.5225334957369062</v>
+        <v>0.53309265944645</v>
       </c>
       <c r="F21">
-        <v>0.4526315789473684</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="G21">
-        <v>0.5036674816625917</v>
+        <v>0.4863258026159334</v>
       </c>
       <c r="H21">
-        <v>0.436</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5510204081632653</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C22">
-        <v>0.5168374816983895</v>
+        <v>0.5163352272727273</v>
       </c>
       <c r="D22">
-        <v>0.4777777777777778</v>
+        <v>0.4675324675324675</v>
       </c>
       <c r="E22">
-        <v>0.529338327091136</v>
+        <v>0.5344619105199516</v>
       </c>
       <c r="F22">
-        <v>0.4368932038834951</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="G22">
-        <v>0.5024875621890548</v>
+        <v>0.4802867383512545</v>
       </c>
       <c r="H22">
-        <v>0.442</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5463917525773195</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C23">
-        <v>0.5119887165021156</v>
+        <v>0.5183175033921302</v>
       </c>
       <c r="D23">
-        <v>0.4095238095238095</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="E23">
-        <v>0.5267745952677459</v>
+        <v>0.5244922341696535</v>
       </c>
       <c r="F23">
-        <v>0.4811320754716981</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="G23">
-        <v>0.504424778761062</v>
+        <v>0.4741896758703482</v>
       </c>
       <c r="H23">
-        <v>0.436</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5545454545454546</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C24">
-        <v>0.5115646258503401</v>
+        <v>0.5221122112211221</v>
       </c>
       <c r="D24">
-        <v>0.4814814814814815</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="E24">
-        <v>0.5256570713391739</v>
+        <v>0.5240963855421686</v>
       </c>
       <c r="F24">
-        <v>0.4485981308411215</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="G24">
-        <v>0.5031289111389237</v>
+        <v>0.4645476772616137</v>
       </c>
       <c r="H24">
-        <v>0.42</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5092592592592593</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C25">
-        <v>0.5092838196286472</v>
+        <v>0.5260482846251588</v>
       </c>
       <c r="D25">
-        <v>0.5047619047619047</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="E25">
-        <v>0.5238095238095238</v>
+        <v>0.5228915662650603</v>
       </c>
       <c r="F25">
-        <v>0.5263157894736842</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="G25">
-        <v>0.5006257822277848</v>
+        <v>0.4732360097323601</v>
       </c>
       <c r="H25">
-        <v>0.444</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5304347826086957</v>
+        <v>0.4608695652173913</v>
       </c>
       <c r="C26">
-        <v>0.5118059987236758</v>
+        <v>0.5237507711289328</v>
       </c>
       <c r="D26">
-        <v>0.4555555555555555</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E26">
-        <v>0.5180124223602485</v>
+        <v>0.5140758873929009</v>
       </c>
       <c r="F26">
-        <v>0.4757281553398058</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="G26">
-        <v>0.4932515337423313</v>
+        <v>0.4693627450980392</v>
       </c>
       <c r="H26">
-        <v>0.472</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.4862385321100918</v>
+        <v>0.4</v>
       </c>
       <c r="C27">
-        <v>0.5120444718962323</v>
+        <v>0.5233812949640287</v>
       </c>
       <c r="D27">
-        <v>0.4772727272727273</v>
+        <v>0.4766355140186916</v>
       </c>
       <c r="E27">
-        <v>0.5284159613059251</v>
+        <v>0.5146699266503667</v>
       </c>
       <c r="F27">
-        <v>0.4893617021276596</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="G27">
-        <v>0.4969325153374233</v>
+        <v>0.4701583434835566</v>
       </c>
       <c r="H27">
-        <v>0.464</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.495575221238938</v>
+        <v>0.4495412844036697</v>
       </c>
       <c r="C28">
-        <v>0.5154211150652431</v>
+        <v>0.5271676300578034</v>
       </c>
       <c r="D28">
-        <v>0.451219512195122</v>
+        <v>0.46875</v>
       </c>
       <c r="E28">
-        <v>0.5270108043217286</v>
+        <v>0.5061881188118812</v>
       </c>
       <c r="F28">
-        <v>0.4947368421052631</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G28">
-        <v>0.5078407720144753</v>
+        <v>0.4742014742014742</v>
       </c>
       <c r="H28">
-        <v>0.448</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5089285714285714</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C29">
-        <v>0.5155350978135789</v>
+        <v>0.5226636821488528</v>
       </c>
       <c r="D29">
-        <v>0.4875</v>
+        <v>0.4536082474226804</v>
       </c>
       <c r="E29">
-        <v>0.5268817204301075</v>
+        <v>0.5085158150851582</v>
       </c>
       <c r="F29">
-        <v>0.4545454545454545</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="G29">
-        <v>0.5012135922330098</v>
+        <v>0.4825090470446321</v>
       </c>
       <c r="H29">
-        <v>0.448</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.4869565217391305</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C30">
-        <v>0.5161830357142857</v>
+        <v>0.5197368421052632</v>
       </c>
       <c r="D30">
-        <v>0.524390243902439</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="E30">
-        <v>0.5300480769230769</v>
+        <v>0.5104294478527608</v>
       </c>
       <c r="F30">
-        <v>0.4782608695652174</v>
+        <v>0.5125</v>
       </c>
       <c r="G30">
-        <v>0.5060679611650486</v>
+        <v>0.4843373493975904</v>
       </c>
       <c r="H30">
-        <v>0.452</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.4857142857142857</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C31">
-        <v>0.5183387270765911</v>
+        <v>0.5221518987341772</v>
       </c>
       <c r="D31">
-        <v>0.3977272727272727</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="E31">
-        <v>0.5202863961813843</v>
+        <v>0.5102533172496985</v>
       </c>
       <c r="F31">
-        <v>0.4239130434782609</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G31">
-        <v>0.5036144578313253</v>
+        <v>0.4922341696535245</v>
       </c>
       <c r="H31">
-        <v>0.456</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.4583333333333333</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="C32">
-        <v>0.5195210827693909</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="D32">
-        <v>0.4074074074074074</v>
+        <v>0.5487804878048781</v>
       </c>
       <c r="E32">
-        <v>0.5227272727272727</v>
+        <v>0.5136476426799007</v>
       </c>
       <c r="F32">
-        <v>0.5529411764705883</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="G32">
-        <v>0.5102040816326531</v>
+        <v>0.4914004914004914</v>
       </c>
       <c r="H32">
-        <v>0.438</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.4948453608247423</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="C33">
-        <v>0.5206445115810675</v>
+        <v>0.5184079601990049</v>
       </c>
       <c r="D33">
-        <v>0.3975903614457831</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E33">
-        <v>0.5167464114832536</v>
+        <v>0.5145985401459854</v>
       </c>
       <c r="F33">
-        <v>0.5824175824175825</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="G33">
-        <v>0.5048076923076923</v>
+        <v>0.4987980769230769</v>
       </c>
       <c r="H33">
-        <v>0.446</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5137614678899083</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="C34">
-        <v>0.5176125244618396</v>
+        <v>0.521147301895965</v>
       </c>
       <c r="D34">
-        <v>0.4186046511627907</v>
+        <v>0.5</v>
       </c>
       <c r="E34">
-        <v>0.5089605734767025</v>
+        <v>0.5256723716381418</v>
       </c>
       <c r="F34">
-        <v>0.5894736842105263</v>
+        <v>0.375</v>
       </c>
       <c r="G34">
-        <v>0.5108433734939759</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="H34">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5504587155963303</v>
+        <v>0.4591836734693878</v>
       </c>
       <c r="C35">
-        <v>0.5168269230769231</v>
+        <v>0.5247148288973384</v>
       </c>
       <c r="D35">
-        <v>0.4712643678160919</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E35">
-        <v>0.5145631067961165</v>
+        <v>0.529482551143201</v>
       </c>
       <c r="F35">
-        <v>0.6091954022988506</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="G35">
-        <v>0.5183823529411765</v>
+        <v>0.5108433734939759</v>
       </c>
       <c r="H35">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.495575221238938</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C36">
-        <v>0.5147540983606558</v>
+        <v>0.5222988505747126</v>
       </c>
       <c r="D36">
-        <v>0.4421052631578947</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E36">
-        <v>0.5073529411764706</v>
+        <v>0.5321212121212121</v>
       </c>
       <c r="F36">
-        <v>0.4639175257731959</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="G36">
-        <v>0.5220588235294118</v>
+        <v>0.5066505441354293</v>
       </c>
       <c r="H36">
-        <v>0.436</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.4862385321100918</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="C37">
-        <v>0.5189238486092111</v>
+        <v>0.5215439856373429</v>
       </c>
       <c r="D37">
-        <v>0.4736842105263158</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="E37">
-        <v>0.5175757575757576</v>
+        <v>0.5264423076923077</v>
       </c>
       <c r="F37">
-        <v>0.5384615384615384</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="G37">
-        <v>0.529126213592233</v>
+        <v>0.5042424242424243</v>
       </c>
       <c r="H37">
-        <v>0.436</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4608695652173913</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="C38">
-        <v>0.5200534759358288</v>
+        <v>0.5203993055555556</v>
       </c>
       <c r="D38">
-        <v>0.5060240963855421</v>
+        <v>0.4430379746835443</v>
       </c>
       <c r="E38">
-        <v>0.5214198286413708</v>
+        <v>0.5265060240963856</v>
       </c>
       <c r="F38">
-        <v>0.4651162790697674</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="G38">
-        <v>0.5261875761266748</v>
+        <v>0.5</v>
       </c>
       <c r="H38">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4519230769230769</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C39">
-        <v>0.5211328976034858</v>
+        <v>0.520273154075971</v>
       </c>
       <c r="D39">
-        <v>0.4888888888888889</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="E39">
-        <v>0.5115712545676004</v>
+        <v>0.534688995215311</v>
       </c>
       <c r="F39">
-        <v>0.4148936170212766</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="G39">
-        <v>0.5171149144254279</v>
+        <v>0.4915458937198068</v>
       </c>
       <c r="H39">
-        <v>0.464</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.514018691588785</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C40">
-        <v>0.521079258010118</v>
+        <v>0.5248641872127037</v>
       </c>
       <c r="D40">
-        <v>0.5119047619047619</v>
+        <v>0.4204545454545455</v>
       </c>
       <c r="E40">
-        <v>0.5162064825930373</v>
+        <v>0.5319662243667069</v>
       </c>
       <c r="F40">
-        <v>0.4712643678160919</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="G40">
-        <v>0.5210589651022864</v>
+        <v>0.4921402660217654</v>
       </c>
       <c r="H40">
-        <v>0.456</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5172413793103449</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="C41">
-        <v>0.5168863261943987</v>
+        <v>0.5250616269515201</v>
       </c>
       <c r="D41">
-        <v>0.547945205479452</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="E41">
-        <v>0.5124555160142349</v>
+        <v>0.5317073170731708</v>
       </c>
       <c r="F41">
-        <v>0.4545454545454545</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="G41">
-        <v>0.5101070154577884</v>
+        <v>0.4951219512195122</v>
       </c>
       <c r="H41">
-        <v>0.474</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5178571428571429</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="C42">
-        <v>0.5181891673403395</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="D42">
-        <v>0.5569620253164557</v>
+        <v>0.375</v>
       </c>
       <c r="E42">
-        <v>0.5118483412322274</v>
+        <v>0.5306859205776173</v>
       </c>
       <c r="F42">
-        <v>0.45</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="G42">
-        <v>0.5136417556346382</v>
+        <v>0.5006016847172082</v>
       </c>
       <c r="H42">
-        <v>0.462</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.5</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="C43">
-        <v>0.5169960474308301</v>
+        <v>0.522029897718332</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="E43">
-        <v>0.5168269230769231</v>
+        <v>0.5240384615384616</v>
       </c>
       <c r="F43">
-        <v>0.4235294117647059</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="G43">
-        <v>0.524609843937575</v>
+        <v>0.4914841849148419</v>
       </c>
       <c r="H43">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4462809917355372</v>
+        <v>0.52</v>
       </c>
       <c r="C44">
-        <v>0.5200311162971606</v>
+        <v>0.5209696036937284</v>
       </c>
       <c r="D44">
-        <v>0.5172413793103449</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="E44">
-        <v>0.510353227771011</v>
+        <v>0.5284159613059251</v>
       </c>
       <c r="F44">
-        <v>0.4302325581395349</v>
+        <v>0.4597701149425287</v>
       </c>
       <c r="G44">
-        <v>0.5201958384332925</v>
+        <v>0.4969770253929867</v>
       </c>
       <c r="H44">
-        <v>0.472</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4462809917355372</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C45">
-        <v>0.5200764818355641</v>
+        <v>0.5206611570247934</v>
       </c>
       <c r="D45">
-        <v>0.422680412371134</v>
+        <v>0.4659090909090909</v>
       </c>
       <c r="E45">
-        <v>0.5104808877928483</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="F45">
-        <v>0.5268817204301075</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G45">
-        <v>0.5177914110429448</v>
+        <v>0.4904306220095694</v>
       </c>
       <c r="H45">
-        <v>0.468</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4757281553398058</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="C46">
-        <v>0.5204964272282813</v>
+        <v>0.5215469613259669</v>
       </c>
       <c r="D46">
-        <v>0.5151515151515151</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="E46">
-        <v>0.51125</v>
+        <v>0.5204819277108433</v>
       </c>
       <c r="F46">
-        <v>0.4941176470588236</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="G46">
-        <v>0.5117719950433705</v>
+        <v>0.4976076555023923</v>
       </c>
       <c r="H46">
-        <v>0.48</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5181818181818182</v>
+        <v>0.53</v>
       </c>
       <c r="C47">
-        <v>0.5187887632251004</v>
+        <v>0.5217547644732111</v>
       </c>
       <c r="D47">
-        <v>0.4910714285714285</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="E47">
-        <v>0.5086206896551724</v>
+        <v>0.513126491646778</v>
       </c>
       <c r="F47">
-        <v>0.5268817204301075</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="G47">
-        <v>0.5235792019347038</v>
+        <v>0.5071428571428571</v>
       </c>
       <c r="H47">
-        <v>0.478</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4653465346534654</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="C48">
-        <v>0.5167857142857143</v>
+        <v>0.520368402408785</v>
       </c>
       <c r="D48">
-        <v>0.4623655913978494</v>
+        <v>0.3977272727272727</v>
       </c>
       <c r="E48">
-        <v>0.5097323600973236</v>
+        <v>0.51985559566787</v>
       </c>
       <c r="F48">
-        <v>0.525</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="G48">
-        <v>0.5196195005945303</v>
+        <v>0.5139056831922612</v>
       </c>
       <c r="H48">
-        <v>0.492</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5</v>
+        <v>0.4351851851851852</v>
       </c>
       <c r="C49">
-        <v>0.5157122905027933</v>
+        <v>0.5209351011863224</v>
       </c>
       <c r="D49">
-        <v>0.475609756097561</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="E49">
-        <v>0.5167865707434053</v>
+        <v>0.5136138613861386</v>
       </c>
       <c r="F49">
-        <v>0.5138888888888888</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="G49">
-        <v>0.5147579693034239</v>
+        <v>0.5092250922509225</v>
       </c>
       <c r="H49">
-        <v>0.492</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5398230088495575</v>
+        <v>0.4174757281553398</v>
       </c>
       <c r="C50">
-        <v>0.5150684931506849</v>
+        <v>0.5213351686166552</v>
       </c>
       <c r="D50">
-        <v>0.5681818181818182</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E50">
-        <v>0.5167464114832536</v>
+        <v>0.5112219451371571</v>
       </c>
       <c r="F50">
-        <v>0.4936708860759494</v>
+        <v>0.51</v>
       </c>
       <c r="G50">
-        <v>0.51357733175915</v>
+        <v>0.5179677819083024</v>
       </c>
       <c r="H50">
-        <v>0.486</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.59</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C51">
-        <v>0.5140630294815317</v>
+        <v>0.5199055330634278</v>
       </c>
       <c r="D51">
-        <v>0.4871794871794872</v>
+        <v>0.5242718446601942</v>
       </c>
       <c r="E51">
-        <v>0.5178351783517835</v>
+        <v>0.5124378109452736</v>
       </c>
       <c r="F51">
-        <v>0.5189873417721519</v>
+        <v>0.4536082474226804</v>
       </c>
       <c r="G51">
-        <v>0.5072992700729927</v>
+        <v>0.5217932752179327</v>
       </c>
       <c r="H51">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5392156862745098</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="C52">
-        <v>0.512396694214876</v>
+        <v>0.5160649221596555</v>
       </c>
       <c r="D52">
-        <v>0.4615384615384616</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="E52">
-        <v>0.5319662243667069</v>
+        <v>0.5024999999999999</v>
       </c>
       <c r="F52">
-        <v>0.495049504950495</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="G52">
-        <v>0.5048309178743962</v>
+        <v>0.5291201982651796</v>
       </c>
       <c r="H52">
-        <v>0.486</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5317460317460317</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="C53">
-        <v>0.5152994791666666</v>
+        <v>0.5156046814044213</v>
       </c>
       <c r="D53">
-        <v>0.5444444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E53">
-        <v>0.538083538083538</v>
+        <v>0.5055762081784386</v>
       </c>
       <c r="F53">
-        <v>0.4318181818181818</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="G53">
-        <v>0.5061124694376528</v>
+        <v>0.5244498777506112</v>
       </c>
       <c r="H53">
-        <v>0.486</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4807692307692308</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="C54">
-        <v>0.5169409486931268</v>
+        <v>0.5166028097062579</v>
       </c>
       <c r="D54">
-        <v>0.4578313253012048</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="E54">
-        <v>0.5233415233415234</v>
+        <v>0.5024570024570024</v>
       </c>
       <c r="F54">
-        <v>0.4022988505747127</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="G54">
-        <v>0.5091799265605875</v>
+        <v>0.5215827338129496</v>
       </c>
       <c r="H54">
-        <v>0.474</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C55">
-        <v>0.5180760767054385</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="D55">
-        <v>0.4166666666666667</v>
+        <v>0.4625</v>
       </c>
       <c r="E55">
-        <v>0.5277108433734939</v>
+        <v>0.5104551045510455</v>
       </c>
       <c r="F55">
-        <v>0.4886363636363636</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="G55">
-        <v>0.5132850241545893</v>
+        <v>0.5191846522781774</v>
       </c>
       <c r="H55">
-        <v>0.464</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.4897959183673469</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C56">
-        <v>0.5176034589252625</v>
+        <v>0.5170807453416149</v>
       </c>
       <c r="D56">
-        <v>0.3953488372093023</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E56">
-        <v>0.5233532934131736</v>
+        <v>0.5091130012150669</v>
       </c>
       <c r="F56">
         <v>0.5</v>
       </c>
       <c r="G56">
-        <v>0.5090036014405762</v>
+        <v>0.5176613885505481</v>
       </c>
       <c r="H56">
-        <v>0.476</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4482758620689655</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C57">
-        <v>0.517565112053301</v>
+        <v>0.5143118148599269</v>
       </c>
       <c r="D57">
-        <v>0.4183673469387755</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="E57">
-        <v>0.5216346153846154</v>
+        <v>0.4993909866017052</v>
       </c>
       <c r="F57">
-        <v>0.4935064935064935</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="G57">
-        <v>0.5077288941736029</v>
+        <v>0.5287769784172662</v>
       </c>
       <c r="H57">
-        <v>0.476</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.4945054945054945</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C58">
-        <v>0.5183867141162515</v>
+        <v>0.5148425787106446</v>
       </c>
       <c r="D58">
-        <v>0.4404761904761905</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="E58">
-        <v>0.5249088699878494</v>
+        <v>0.5055762081784386</v>
       </c>
       <c r="F58">
-        <v>0.6111111111111112</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="G58">
-        <v>0.5064935064935064</v>
+        <v>0.5326086956521739</v>
       </c>
       <c r="H58">
-        <v>0.488</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.4803921568627451</v>
+        <v>0.5575221238938053</v>
       </c>
       <c r="C59">
-        <v>0.5197080291970803</v>
+        <v>0.5163668534355648</v>
       </c>
       <c r="D59">
-        <v>0.4642857142857143</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="E59">
-        <v>0.5191846522781774</v>
+        <v>0.5068664169787765</v>
       </c>
       <c r="F59">
-        <v>0.472972972972973</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G59">
-        <v>0.5058962264150944</v>
+        <v>0.5381818181818182</v>
       </c>
       <c r="H59">
-        <v>0.482</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5094339622641509</v>
+        <v>0.5491803278688525</v>
       </c>
       <c r="C60">
-        <v>0.5196418255343732</v>
+        <v>0.5156794425087108</v>
       </c>
       <c r="D60">
-        <v>0.3483146067415731</v>
+        <v>0.3689320388349515</v>
       </c>
       <c r="E60">
-        <v>0.5217917675544794</v>
+        <v>0.5153751537515375</v>
       </c>
       <c r="F60">
-        <v>0.4933333333333333</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="G60">
-        <v>0.5125448028673835</v>
+        <v>0.5338983050847458</v>
       </c>
       <c r="H60">
-        <v>0.492</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5730337078651685</v>
+        <v>0.5</v>
       </c>
       <c r="C61">
-        <v>0.5169660678642715</v>
+        <v>0.5132259919493962</v>
       </c>
       <c r="D61">
-        <v>0.4239130434782609</v>
+        <v>0.36</v>
       </c>
       <c r="E61">
-        <v>0.5277435265104808</v>
+        <v>0.5193992490613266</v>
       </c>
       <c r="F61">
-        <v>0.4305555555555556</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G61">
-        <v>0.5096852300242131</v>
+        <v>0.5335775335775336</v>
       </c>
       <c r="H61">
-        <v>0.496</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5052631578947369</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C62">
-        <v>0.5149901933314655</v>
+        <v>0.515983026874116</v>
       </c>
       <c r="D62">
-        <v>0.5591397849462365</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="E62">
-        <v>0.5235732009925558</v>
+        <v>0.5169811320754717</v>
       </c>
       <c r="F62">
-        <v>0.4</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="G62">
-        <v>0.5217391304347826</v>
+        <v>0.5277435265104808</v>
       </c>
       <c r="H62">
-        <v>0.478</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.4901960784313725</v>
+        <v>0.5126050420168067</v>
       </c>
       <c r="C63">
-        <v>0.516822945394374</v>
+        <v>0.5148983570036202</v>
       </c>
       <c r="D63">
-        <v>0.5288461538461539</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="E63">
-        <v>0.51278928136419</v>
+        <v>0.5068664169787765</v>
       </c>
       <c r="F63">
-        <v>0.3956043956043956</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="G63">
-        <v>0.5246690734055355</v>
+        <v>0.5222772277227723</v>
       </c>
       <c r="H63">
-        <v>0.476</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.4642857142857143</v>
+        <v>0.5086206896551724</v>
       </c>
       <c r="C64">
-        <v>0.5172883201742445</v>
+        <v>0.5151015925315761</v>
       </c>
       <c r="D64">
-        <v>0.5172413793103449</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="E64">
-        <v>0.5134803921568627</v>
+        <v>0.5085995085995086</v>
       </c>
       <c r="F64">
-        <v>0.4886363636363636</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="G64">
-        <v>0.5240963855421686</v>
+        <v>0.5208845208845209</v>
       </c>
       <c r="H64">
-        <v>0.474</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4077669902912621</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="C65">
-        <v>0.5182599355531686</v>
+        <v>0.5140388768898488</v>
       </c>
       <c r="D65">
-        <v>0.5227272727272727</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="E65">
-        <v>0.5198079231692677</v>
+        <v>0.5018094089264173</v>
       </c>
       <c r="F65">
-        <v>0.4659090909090909</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="G65">
-        <v>0.5083932853717026</v>
+        <v>0.5204819277108433</v>
       </c>
       <c r="H65">
-        <v>0.478</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5108695652173914</v>
+        <v>0.4678899082568808</v>
       </c>
       <c r="C66">
-        <v>0.5189504373177842</v>
+        <v>0.5164281928987812</v>
       </c>
       <c r="D66">
-        <v>0.5189873417721519</v>
+        <v>0.5568181818181818</v>
       </c>
       <c r="E66">
-        <v>0.5165238678090576</v>
+        <v>0.5</v>
       </c>
       <c r="F66">
-        <v>0.3846153846153846</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="G66">
-        <v>0.5182926829268293</v>
+        <v>0.5112426035502958</v>
       </c>
       <c r="H66">
-        <v>0.462</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.4848484848484849</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="C67">
-        <v>0.5154988278197448</v>
+        <v>0.5165926313038934</v>
       </c>
       <c r="D67">
-        <v>0.5104166666666666</v>
+        <v>0.4597701149425287</v>
       </c>
       <c r="E67">
-        <v>0.5067155067155067</v>
+        <v>0.5006002400960384</v>
       </c>
       <c r="F67">
-        <v>0.494949494949495</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="G67">
-        <v>0.5224787363304981</v>
+        <v>0.5083732057416268</v>
       </c>
       <c r="H67">
-        <v>0.446</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5225225225225225</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="C68">
-        <v>0.5164439876670093</v>
+        <v>0.514513228872335</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="E68">
-        <v>0.5103030303030303</v>
+        <v>0.5085158150851582</v>
       </c>
       <c r="F68">
-        <v>0.5050505050505051</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="G68">
-        <v>0.5127272727272727</v>
+        <v>0.5132530120481927</v>
       </c>
       <c r="H68">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.4615384615384616</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="C69">
-        <v>0.5157760814249364</v>
+        <v>0.5134586084306755</v>
       </c>
       <c r="D69">
-        <v>0.4761904761904762</v>
+        <v>0.5113636363636364</v>
       </c>
       <c r="E69">
         <v>0.5128518971848225</v>
       </c>
       <c r="F69">
-        <v>0.5119047619047619</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="G69">
-        <v>0.5214723926380368</v>
+        <v>0.5199516324062878</v>
       </c>
       <c r="H69">
-        <v>0.438</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4905660377358491</v>
+        <v>0.5188679245283019</v>
       </c>
       <c r="C70">
-        <v>0.5178751258811681</v>
+        <v>0.5148861646234676</v>
       </c>
       <c r="D70">
-        <v>0.4565217391304348</v>
+        <v>0.4597701149425287</v>
       </c>
       <c r="E70">
-        <v>0.5152998776009792</v>
+        <v>0.50661853188929</v>
       </c>
       <c r="F70">
-        <v>0.4343434343434344</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="G70">
-        <v>0.5250917992656059</v>
+        <v>0.5175332527206772</v>
       </c>
       <c r="H70">
-        <v>0.436</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="C71">
-        <v>0.5159851301115241</v>
+        <v>0.5146804835924007</v>
       </c>
       <c r="D71">
-        <v>0.4711538461538461</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="E71">
-        <v>0.5184275184275184</v>
+        <v>0.5132211538461539</v>
       </c>
       <c r="F71">
-        <v>0.4455445544554456</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="G71">
-        <v>0.5346534653465347</v>
+        <v>0.5182481751824818</v>
       </c>
       <c r="H71">
-        <v>0.444</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5096153846153846</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="C72">
-        <v>0.5157509157509158</v>
+        <v>0.5139732685297691</v>
       </c>
       <c r="D72">
-        <v>0.4731182795698925</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="E72">
-        <v>0.5086206896551724</v>
+        <v>0.5053892215568863</v>
       </c>
       <c r="F72">
-        <v>0.4653465346534654</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="G72">
-        <v>0.5294117647058824</v>
+        <v>0.5090689238210399</v>
       </c>
       <c r="H72">
-        <v>0.456</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.4594594594594595</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="C73">
-        <v>0.5166505791505791</v>
+        <v>0.514787208463573</v>
       </c>
       <c r="D73">
-        <v>0.4777777777777778</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E73">
-        <v>0.5122549019607843</v>
+        <v>0.5108958837772397</v>
       </c>
       <c r="F73">
-        <v>0.5666666666666667</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="G73">
-        <v>0.525990099009901</v>
+        <v>0.5121065375302664</v>
       </c>
       <c r="H73">
-        <v>0.464</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5462962962962963</v>
+        <v>0.453781512605042</v>
       </c>
       <c r="C74">
-        <v>0.516690510252742</v>
+        <v>0.5144686907020873</v>
       </c>
       <c r="D74">
-        <v>0.4646464646464646</v>
+        <v>0.44</v>
       </c>
       <c r="E74">
-        <v>0.5067319461444308</v>
+        <v>0.5102286401925391</v>
       </c>
       <c r="F74">
-        <v>0.4895833333333333</v>
+        <v>0.47</v>
       </c>
       <c r="G74">
-        <v>0.5207823960880196</v>
+        <v>0.5084541062801933</v>
       </c>
       <c r="H74">
-        <v>0.464</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.504424778761062</v>
+        <v>0.4766355140186916</v>
       </c>
       <c r="C75">
-        <v>0.5140778977006101</v>
+        <v>0.516756503398172</v>
       </c>
       <c r="D75">
-        <v>0.5421686746987951</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E75">
-        <v>0.5060532687651331</v>
+        <v>0.5175757575757576</v>
       </c>
       <c r="F75">
-        <v>0.5052631578947369</v>
+        <v>0.5</v>
       </c>
       <c r="G75">
-        <v>0.5246690734055355</v>
+        <v>0.5012106537530266</v>
       </c>
       <c r="H75">
-        <v>0.468</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="C76">
-        <v>0.5149478563151796</v>
+        <v>0.5157797742455655</v>
       </c>
       <c r="D76">
-        <v>0.5232558139534884</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="E76">
-        <v>0.5041518386714117</v>
+        <v>0.5143198090692124</v>
       </c>
       <c r="F76">
-        <v>0.4285714285714285</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="G76">
-        <v>0.5324519230769231</v>
+        <v>0.4994082840236687</v>
       </c>
       <c r="H76">
-        <v>0.454</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.4700854700854701</v>
+        <v>0.4672897196261682</v>
       </c>
       <c r="C77">
-        <v>0.515936711763357</v>
+        <v>0.5144745839981765</v>
       </c>
       <c r="D77">
-        <v>0.5340909090909091</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="E77">
-        <v>0.5090036014405762</v>
+        <v>0.5160905840286055</v>
       </c>
       <c r="F77">
-        <v>0.4761904761904762</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="G77">
-        <v>0.5413173652694611</v>
+        <v>0.5</v>
       </c>
       <c r="H77">
-        <v>0.452</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5217391304347826</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C78">
-        <v>0.5158371040723982</v>
+        <v>0.5154383592517466</v>
       </c>
       <c r="D78">
-        <v>0.4712643678160919</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="E78">
-        <v>0.5120772946859904</v>
+        <v>0.5212121212121212</v>
       </c>
       <c r="F78">
-        <v>0.4625</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="G78">
-        <v>0.5396634615384616</v>
+        <v>0.4993997599039616</v>
       </c>
       <c r="H78">
-        <v>0.446</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5</v>
+        <v>0.5137614678899083</v>
       </c>
       <c r="C79">
-        <v>0.514336917562724</v>
+        <v>0.5125919322487186</v>
       </c>
       <c r="D79">
-        <v>0.5301204819277109</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="E79">
-        <v>0.5147420147420148</v>
+        <v>0.5214723926380368</v>
       </c>
       <c r="F79">
-        <v>0.451219512195122</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="G79">
-        <v>0.5304136253041363</v>
+        <v>0.4908200734394125</v>
       </c>
       <c r="H79">
-        <v>0.466</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5636363636363636</v>
+        <v>0.5242718446601942</v>
       </c>
       <c r="C80">
-        <v>0.5149435466017268</v>
+        <v>0.5129053606882858</v>
       </c>
       <c r="D80">
-        <v>0.494949494949495</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="E80">
-        <v>0.5085365853658537</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="F80">
-        <v>0.4615384615384616</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="G80">
-        <v>0.528554070473876</v>
+        <v>0.4881693648816937</v>
       </c>
       <c r="H80">
-        <v>0.462</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.4615384615384616</v>
+        <v>0.4661016949152542</v>
       </c>
       <c r="C81">
-        <v>0.5126803672933975</v>
+        <v>0.5106893542757417</v>
       </c>
       <c r="D81">
-        <v>0.4712643678160919</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E81">
-        <v>0.5154130702836005</v>
+        <v>0.519159456118665</v>
       </c>
       <c r="F81">
-        <v>0.5769230769230769</v>
+        <v>0.4</v>
       </c>
       <c r="G81">
-        <v>0.5347985347985348</v>
+        <v>0.4906600249066003</v>
       </c>
       <c r="H81">
-        <v>0.452</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5377358490566038</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C82">
-        <v>0.5142302716688227</v>
+        <v>0.5122320848668543</v>
       </c>
       <c r="D82">
-        <v>0.47</v>
+        <v>0.5887850467289719</v>
       </c>
       <c r="E82">
-        <v>0.5151515151515151</v>
+        <v>0.516209476309227</v>
       </c>
       <c r="F82">
-        <v>0.4942528735632184</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="G82">
-        <v>0.525748502994012</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="H82">
-        <v>0.444</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5471698113207547</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C83">
-        <v>0.5139748239812246</v>
+        <v>0.5117521367521367</v>
       </c>
       <c r="D83">
-        <v>0.4941176470588236</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="E83">
-        <v>0.5238678090575275</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="F83">
-        <v>0.4938271604938271</v>
+        <v>0.5</v>
       </c>
       <c r="G83">
-        <v>0.5337349397590362</v>
+        <v>0.48375</v>
       </c>
       <c r="H83">
-        <v>0.446</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="C84">
+        <v>0.511402027027027</v>
+      </c>
+      <c r="D84">
+        <v>0.4803921568627451</v>
+      </c>
+      <c r="E84">
+        <v>0.5216852540272615</v>
+      </c>
+      <c r="F84">
         <v>0.504950495049505</v>
       </c>
-      <c r="C84">
-        <v>0.5130636325326591</v>
-      </c>
-      <c r="D84">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="E84">
-        <v>0.5234657039711191</v>
-      </c>
-      <c r="F84">
-        <v>0.4777777777777778</v>
-      </c>
       <c r="G84">
-        <v>0.5322966507177034</v>
+        <v>0.4797546012269939</v>
       </c>
       <c r="H84">
-        <v>0.458</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5045045045045045</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="C85">
-        <v>0.5118948247078464</v>
+        <v>0.5098285236302802</v>
       </c>
       <c r="D85">
-        <v>0.4871794871794872</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="E85">
-        <v>0.5234567901234568</v>
+        <v>0.5246305418719212</v>
       </c>
       <c r="F85">
-        <v>0.4659090909090909</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="G85">
-        <v>0.5281862745098039</v>
+        <v>0.4907975460122699</v>
       </c>
       <c r="H85">
-        <v>0.466</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5196078431372549</v>
+        <v>0.4873949579831933</v>
       </c>
       <c r="C86">
-        <v>0.5115750310045474</v>
+        <v>0.5094066570188133</v>
       </c>
       <c r="D86">
-        <v>0.5714285714285714</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="E86">
-        <v>0.5224787363304981</v>
+        <v>0.5226438188494492</v>
       </c>
       <c r="F86">
-        <v>0.4545454545454545</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="G86">
-        <v>0.5307125307125307</v>
+        <v>0.4957160342717258</v>
       </c>
       <c r="H86">
-        <v>0.472</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.4639175257731959</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="C87">
-        <v>0.5105037732000816</v>
+        <v>0.5099283520982599</v>
       </c>
       <c r="D87">
-        <v>0.5111111111111111</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="E87">
-        <v>0.5263157894736842</v>
+        <v>0.5231707317073171</v>
       </c>
       <c r="F87">
-        <v>0.4318181818181818</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="G87">
-        <v>0.5324357405140759</v>
+        <v>0.5024449877750611</v>
       </c>
       <c r="H87">
-        <v>0.478</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.4646464646464646</v>
+        <v>0.4793388429752066</v>
       </c>
       <c r="C88">
-        <v>0.512170589418628</v>
+        <v>0.510410349706893</v>
       </c>
       <c r="D88">
-        <v>0.5487804878048781</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="E88">
-        <v>0.5282112845138055</v>
+        <v>0.518925518925519</v>
       </c>
       <c r="F88">
-        <v>0.3932584269662922</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="G88">
-        <v>0.5287081339712919</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="H88">
-        <v>0.482</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.485981308411215</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="C89">
-        <v>0.5113230035756854</v>
+        <v>0.5115207373271889</v>
       </c>
       <c r="D89">
-        <v>0.4864864864864865</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="E89">
-        <v>0.5223529411764706</v>
+        <v>0.5218978102189781</v>
       </c>
       <c r="F89">
-        <v>0.4597701149425287</v>
+        <v>0.575</v>
       </c>
       <c r="G89">
-        <v>0.5254437869822485</v>
+        <v>0.5200974421437271</v>
       </c>
       <c r="H89">
-        <v>0.494</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5321100917431193</v>
+        <v>0.4563106796116505</v>
       </c>
       <c r="C90">
-        <v>0.5107220145583317</v>
+        <v>0.5103734439834025</v>
       </c>
       <c r="D90">
-        <v>0.5</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="E90">
-        <v>0.5216881594372802</v>
+        <v>0.5195121951219512</v>
       </c>
       <c r="F90">
-        <v>0.5066666666666667</v>
+        <v>0.4375</v>
       </c>
       <c r="G90">
-        <v>0.5202380952380953</v>
+        <v>0.5199516324062878</v>
       </c>
       <c r="H90">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5272727272727272</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="C91">
-        <v>0.5093348891481914</v>
+        <v>0.5113325517780383</v>
       </c>
       <c r="D91">
-        <v>0.4819277108433735</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="E91">
-        <v>0.5271867612293144</v>
+        <v>0.5104294478527608</v>
       </c>
       <c r="F91">
-        <v>0.4578313253012048</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="G91">
-        <v>0.5182998819362455</v>
+        <v>0.5197132616487455</v>
       </c>
       <c r="H91">
-        <v>0.506</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.4579439252336449</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="C92">
-        <v>0.5108884178068992</v>
+        <v>0.5104247104247104</v>
       </c>
       <c r="D92">
-        <v>0.5333333333333333</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="E92">
-        <v>0.5392986698911729</v>
+        <v>0.5012224938875306</v>
       </c>
       <c r="F92">
-        <v>0.4155844155844156</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="G92">
-        <v>0.5289855072463768</v>
+        <v>0.5214285714285715</v>
       </c>
       <c r="H92">
-        <v>0.512</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.4956521739130435</v>
+        <v>0.5206611570247934</v>
       </c>
       <c r="C93">
-        <v>0.5121997712542889</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="D93">
-        <v>0.4680851063829787</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="E93">
-        <v>0.5337349397590362</v>
+        <v>0.4981818181818182</v>
       </c>
       <c r="F93">
-        <v>0.4069767441860465</v>
+        <v>0.5584415584415584</v>
       </c>
       <c r="G93">
-        <v>0.5314009661835749</v>
+        <v>0.5243757431629013</v>
       </c>
       <c r="H93">
-        <v>0.506</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.5</v>
+        <v>0.546875</v>
       </c>
       <c r="C94">
-        <v>0.511614730878187</v>
+        <v>0.5098784194528876</v>
       </c>
       <c r="D94">
-        <v>0.49</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="E94">
-        <v>0.5304136253041363</v>
+        <v>0.503030303030303</v>
       </c>
       <c r="F94">
-        <v>0.4651162790697674</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="G94">
-        <v>0.529482551143201</v>
+        <v>0.5373493975903615</v>
       </c>
       <c r="H94">
-        <v>0.5</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.5526315789473685</v>
+        <v>0.5645161290322581</v>
       </c>
       <c r="C95">
-        <v>0.5113105253318377</v>
+        <v>0.510096244574448</v>
       </c>
       <c r="D95">
-        <v>0.4951456310679612</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="E95">
-        <v>0.5351418002466092</v>
+        <v>0.4969173859432799</v>
       </c>
       <c r="F95">
-        <v>0.5125</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="G95">
-        <v>0.5223700120918985</v>
+        <v>0.5379901960784313</v>
       </c>
       <c r="H95">
-        <v>0.494</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5263157894736842</v>
+        <v>0.5041322314049587</v>
       </c>
       <c r="C96">
-        <v>0.5110083256244218</v>
+        <v>0.5093457943925234</v>
       </c>
       <c r="D96">
-        <v>0.4854368932038835</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="E96">
-        <v>0.530209617755857</v>
+        <v>0.4870530209617756</v>
       </c>
       <c r="F96">
-        <v>0.4431818181818182</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="G96">
-        <v>0.5155875299760192</v>
+        <v>0.5387453874538746</v>
       </c>
       <c r="H96">
-        <v>0.488</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.5188679245283019</v>
+        <v>0.4959349593495935</v>
       </c>
       <c r="C97">
-        <v>0.5115384615384615</v>
+        <v>0.5103588605253422</v>
       </c>
       <c r="D97">
-        <v>0.4285714285714285</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E97">
-        <v>0.5318627450980392</v>
+        <v>0.4913151364764268</v>
       </c>
       <c r="F97">
-        <v>0.5119047619047619</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="G97">
-        <v>0.5114320096269555</v>
+        <v>0.5276073619631901</v>
       </c>
       <c r="H97">
-        <v>0.498</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.4862385321100918</v>
+        <v>0.4453781512605042</v>
       </c>
       <c r="C98">
-        <v>0.5117668356263577</v>
+        <v>0.5096101043382757</v>
       </c>
       <c r="D98">
-        <v>0.4554455445544555</v>
+        <v>0.52</v>
       </c>
       <c r="E98">
-        <v>0.5288343558282208</v>
+        <v>0.4902676399026764</v>
       </c>
       <c r="F98">
-        <v>0.4772727272727273</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="G98">
-        <v>0.5132530120481927</v>
+        <v>0.5319662243667069</v>
       </c>
       <c r="H98">
-        <v>0.482</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4912280701754386</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="C99">
-        <v>0.5120287253141831</v>
+        <v>0.5100598151169113</v>
       </c>
       <c r="D99">
-        <v>0.4222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="E99">
-        <v>0.5246913580246914</v>
+        <v>0.4792176039119804</v>
       </c>
       <c r="F99">
-        <v>0.5116279069767442</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="G99">
-        <v>0.511543134872418</v>
+        <v>0.5373493975903615</v>
       </c>
       <c r="H99">
-        <v>0.498</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.4528301886792453</v>
+        <v>0.46875</v>
       </c>
       <c r="C100">
-        <v>0.5128296507483963</v>
+        <v>0.5092575948229373</v>
       </c>
       <c r="D100">
-        <v>0.5</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E100">
-        <v>0.5246305418719212</v>
+        <v>0.4741379310344828</v>
       </c>
       <c r="F100">
-        <v>0.52</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="G100">
-        <v>0.5128205128205128</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="H100">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.4583333333333333</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C101">
-        <v>0.5134754271622336</v>
+        <v>0.5091751291644397</v>
       </c>
       <c r="D101">
-        <v>0.4148936170212766</v>
+        <v>0.5</v>
       </c>
       <c r="E101">
-        <v>0.5097799511002445</v>
+        <v>0.4841849148418492</v>
       </c>
       <c r="F101">
-        <v>0.5151515151515151</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="G101">
-        <v>0.5173267326732673</v>
+        <v>0.5414634146341464</v>
       </c>
       <c r="H101">
-        <v>0.492</v>
+        <v>0.486</v>
       </c>
     </row>
   </sheetData>
